--- a/漢字（かんじ）/s.xlsx
+++ b/漢字（かんじ）/s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A13CAD-DE88-4491-8203-4D12770E8CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F7EF4E-6F77-4841-A21F-82DD3FD9ED08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="さ" sheetId="1" r:id="rId1"/>
@@ -1199,10 +1199,6 @@
 指数｜しすう
 指導｜しどう
 指令｜しれい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素直｜すなお</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2540,6 +2536,11 @@
 進路｜しんろ
 進出｜しんしゅつ
 進化｜しんか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素直｜すなお
+素敵｜すてき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2948,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>237</v>
@@ -2968,10 +2969,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -2980,7 +2981,7 @@
         <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -2988,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -3011,16 +3012,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3037,10 +3038,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -3071,7 +3072,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
@@ -3097,7 +3098,7 @@
         <v>98</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3117,7 +3118,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3125,19 +3126,19 @@
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3154,10 +3155,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
@@ -3174,10 +3175,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -3188,16 +3189,16 @@
         <v>150</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3227,10 +3228,10 @@
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3282,10 +3283,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -3298,7 +3299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FBE25A-5774-436D-8C1C-E9DE4531361B}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -3336,10 +3337,10 @@
         <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>72</v>
@@ -3368,7 +3369,7 @@
         <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="70.2" x14ac:dyDescent="0.45">
@@ -3388,7 +3389,7 @@
         <v>191</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3419,7 +3420,7 @@
         <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>140</v>
@@ -3439,7 +3440,7 @@
         <v>192</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>140</v>
@@ -3448,7 +3449,7 @@
         <v>143</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.45">
@@ -3479,7 +3480,7 @@
         <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>119</v>
@@ -3488,7 +3489,7 @@
         <v>120</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3499,7 +3500,7 @@
         <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>119</v>
@@ -3508,7 +3509,7 @@
         <v>121</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3519,7 +3520,7 @@
         <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>119</v>
@@ -3568,7 +3569,7 @@
         <v>248</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3579,7 +3580,7 @@
         <v>200</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>247</v>
@@ -3599,7 +3600,7 @@
         <v>232</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>31</v>
@@ -3668,7 +3669,7 @@
         <v>58</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -3676,10 +3677,10 @@
         <v>92</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
@@ -3696,19 +3697,19 @@
         <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3716,19 +3717,19 @@
         <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3736,10 +3737,10 @@
         <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>53</v>
@@ -3756,10 +3757,10 @@
         <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>267</v>
@@ -3768,7 +3769,7 @@
         <v>268</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3776,19 +3777,19 @@
         <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="E24" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3796,19 +3797,19 @@
         <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3816,19 +3817,19 @@
         <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3839,13 +3840,13 @@
         <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -3859,13 +3860,13 @@
         <v>157</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3879,10 +3880,10 @@
         <v>195</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3896,10 +3897,10 @@
         <v>139</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -3913,10 +3914,10 @@
         <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3935,10 +3936,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -3949,7 +3950,7 @@
         <v>88</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -3971,7 +3972,7 @@
         <v>178</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -3990,10 +3991,10 @@
         <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -4001,10 +4002,10 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4012,10 +4013,10 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -4034,10 +4035,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4070,7 +4071,7 @@
         <v>159</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -4078,10 +4079,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -4089,10 +4090,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -4100,10 +4101,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -4111,10 +4112,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -4147,7 +4148,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="180" x14ac:dyDescent="0.45">
@@ -4158,7 +4159,7 @@
         <v>146</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4169,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4180,7 +4181,7 @@
         <v>91</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4213,7 +4214,7 @@
         <v>213</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -4221,10 +4222,10 @@
         <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -4232,10 +4233,10 @@
         <v>34</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4243,10 +4244,10 @@
         <v>34</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4257,7 +4258,7 @@
         <v>147</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4265,10 +4266,10 @@
         <v>148</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4290,7 +4291,7 @@
         <v>149</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4301,7 +4302,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4345,7 +4346,7 @@
         <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4356,7 +4357,7 @@
         <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="76.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -4378,7 +4379,7 @@
         <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -4408,7 +4409,7 @@
         <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
@@ -4441,7 +4442,7 @@
         <v>171</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
@@ -4463,7 +4464,7 @@
         <v>214</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4471,10 +4472,10 @@
         <v>61</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4482,10 +4483,10 @@
         <v>61</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4496,7 +4497,7 @@
         <v>222</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -4518,7 +4519,7 @@
         <v>254</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -4537,10 +4538,10 @@
         <v>61</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4548,10 +4549,10 @@
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
@@ -4559,10 +4560,10 @@
         <v>61</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -4573,7 +4574,7 @@
         <v>230</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4581,10 +4582,10 @@
         <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -4597,8 +4598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C4610-9366-4F3B-A09E-05A72A5ED9D2}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4628,15 +4629,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>276</v>
+      <c r="C3" s="2" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4644,55 +4645,55 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
@@ -4703,7 +4704,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -4736,7 +4737,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4752,37 +4753,37 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" t="s">
         <v>311</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4836,7 +4837,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>114</v>
@@ -4845,7 +4846,7 @@
         <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4853,10 +4854,10 @@
         <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>114</v>
@@ -4876,7 +4877,7 @@
         <v>271</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>114</v>
@@ -4896,16 +4897,16 @@
         <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -4922,10 +4923,10 @@
         <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4965,7 +4966,7 @@
         <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -4976,7 +4977,7 @@
         <v>252</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
@@ -4985,7 +4986,7 @@
         <v>123</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5005,7 +5006,7 @@
         <v>196</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -5022,10 +5023,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5033,19 +5034,19 @@
         <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -5053,10 +5054,10 @@
         <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -5067,7 +5068,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -5078,7 +5079,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="162" x14ac:dyDescent="0.45">
@@ -5089,7 +5090,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -5097,10 +5098,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5133,7 +5134,7 @@
         <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5155,7 +5156,7 @@
         <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -5185,10 +5186,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -5196,10 +5197,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5207,10 +5208,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5218,10 +5219,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5229,10 +5230,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -5240,10 +5241,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5251,10 +5252,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -5359,16 +5360,16 @@
         <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5399,7 +5400,7 @@
         <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>124</v>
@@ -5408,7 +5409,7 @@
         <v>129</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5428,7 +5429,7 @@
         <v>130</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -5439,16 +5440,16 @@
         <v>230</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5459,7 +5460,7 @@
         <v>251</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>124</v>
@@ -5476,19 +5477,19 @@
         <v>172</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5496,10 +5497,10 @@
         <v>172</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>216</v>
@@ -5513,10 +5514,10 @@
         <v>172</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -5524,10 +5525,10 @@
         <v>172</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -5535,10 +5536,10 @@
         <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5546,10 +5547,10 @@
         <v>172</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5560,7 +5561,7 @@
         <v>221</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5568,10 +5569,10 @@
         <v>220</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/s.xlsx
+++ b/漢字（かんじ）/s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F7EF4E-6F77-4841-A21F-82DD3FD9ED08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5CB00C-DB21-4D78-9D31-84C6251972A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="さ" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="509">
   <si>
     <t>さ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1910,11 +1910,6 @@
   </si>
   <si>
     <t>須</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宛先｜あてさき
-先程｜さきほど</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2248,6 +2243,248 @@
     <t>詞</t>
   </si>
   <si>
+    <t>接続｜せつぞく
+接受｜せつじゅ
+接収｜せっしゅう
+接近｜せっきん
+接触｜せっしょく
+接待｜せったい
+接触不良｜せっしょくふりょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤｜さくご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誠実｜せいじつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正解｜せいかい
+正確｜せいかく
+正式｜せいしき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式｜せいしき
+形式｜けいしき
+方式｜ほうしき
+株式｜かぶしき
+入学式｜にゅうがくしき
+卒業式｜そつぎょうしき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温室｜おんしつ
+室内｜しつない
+自習室｜じしゅうしつ
+温室効果｜おんしつこうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一等賞｜いっとうしょう
+観賞｜かんしょう
+大賞｜たいしょう
+流行語大賞｜りゅうこうごたいしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沢山｜たくさん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少子化｜しょうしか
+少子化対策｜しょうしかたいさく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減少｜げんしょう
+少数｜しょうすう
+少子｜しょうし
+少子化｜しょうしか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>創造｜そうぞう
+創造力｜そうぞうりょく
+創作｜そうさく
+創設｜そうせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定｜せってい
+設計｜せっけい
+設置｜せっち
+創設｜そうせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">認識｜にんしき
+意識｜いしき
+標識｜ひょうしき
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知識｜ちしき</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成績｜せいせき
+成功｜せいこう
+成長｜せいちょう
+育成｜いくせい
+完成｜かんせい
+達成｜たっせい
+養成｜ようせい
+成分｜せいぶん
+成分表｜せいぶんひょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘｜しょうへい
+招聘状｜しょうへいじょう
+招待｜ようたい
+招待券｜しょうたいけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縮小｜しゅくしょう
+縮小版｜しゅくしょうばん
+萎縮｜いしゅく
+退縮｜たいしゅく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種類｜しゅるい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安静｜あんせい
+平静｜へいせい
+冷静｜れいせい
+閑静｜かんせい
+静音｜せいおん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音｜せいおん
+声援｜せいえん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策｜せいさく
+対策｜たいさく
+対応策｜たいおうさく
+解決策｜かいけつさく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風船｜ふうせん
+宇宙船｜うちゅうせん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座席｜ざせき
+座席予約｜ざせきよやく
+欠席｜けっせき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝利｜しょうり
+連勝｜れんしょう
+連勝記録｜れんしょうきろく
+優勝｜ゆうしょう
+優勝者｜ゆうしょうしゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実践｜じっせん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先生｜せんせい
+先駆｜えんく
+先進｜せんしん
+先進国｜せんしんこく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前進｜ぜんしん
+直進｜ちょくしん
+増進｜ぞうしん
+促進｜そくしん
+先進｜せんしん
+先進国｜せんしんこく
+促進効果｜そくしんこうか
+進路｜しんろ
+進出｜しんしゅつ
+進化｜しんか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素直｜すなお
+素敵｜すてき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賛成｜さんせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>出力｜しゅつりょく（</t>
     </r>
@@ -2305,242 +2542,17 @@
       </rPr>
       <t>出勤｜しゅっきん
 出動｜しゅつどう
-出演｜しゅつえん</t>
+出演｜しゅつえん
+主催｜しゅさい
+出席｜しゅっせき</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接続｜せつぞく
-接受｜せつじゅ
-接収｜せっしゅう
-接近｜せっきん
-接触｜せっしょく
-接待｜せったい
-接触不良｜せっしょくふりょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>錯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>錯誤｜さくご</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>誠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>誠実｜せいじつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正解｜せいかい
-正確｜せいかく
-正式｜せいしき</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式｜せいしき
-形式｜けいしき
-方式｜ほうしき
-株式｜かぶしき
-入学式｜にゅうがくしき
-卒業式｜そつぎょうしき</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温室｜おんしつ
-室内｜しつない
-自習室｜じしゅうしつ
-温室効果｜おんしつこうか</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一等賞｜いっとうしょう
-観賞｜かんしょう
-大賞｜たいしょう
-流行語大賞｜りゅうこうごたいしょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沢山｜たくさん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少子化｜しょうしか
-少子化対策｜しょうしかたいさく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>減少｜げんしょう
-少数｜しょうすう
-少子｜しょうし
-少子化｜しょうしか</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>すが</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>創造｜そうぞう
-創造力｜そうぞうりょく
-創作｜そうさく
-創設｜そうせつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定｜せってい
-設計｜せっけい
-設置｜せっち
-創設｜そうせつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">認識｜にんしき
-意識｜いしき
-標識｜ひょうしき
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>知識｜ちしき</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成績｜せいせき
-成功｜せいこう
-成長｜せいちょう
-育成｜いくせい
-完成｜かんせい
-達成｜たっせい
-養成｜ようせい
-成分｜せいぶん
-成分表｜せいぶんひょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘｜しょうへい
-招聘状｜しょうへいじょう
-招待｜ようたい
-招待券｜しょうたいけん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>縮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>縮小｜しゅくしょう
-縮小版｜しゅくしょうばん
-萎縮｜いしゅく
-退縮｜たいしゅく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>種</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>種類｜しゅるい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安静｜あんせい
-平静｜へいせい
-冷静｜れいせい
-閑静｜かんせい
-静音｜せいおん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声音｜せいおん
-声援｜せいえん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策｜せいさく
-対策｜たいさく
-対応策｜たいおうさく
-解決策｜かいけつさく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>風船｜ふうせん
-宇宙船｜うちゅうせん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座席｜ざせき
-座席予約｜ざせきよやく
-欠席｜けっせき</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勝利｜しょうり
-連勝｜れんしょう
-連勝記録｜れんしょうきろく
-優勝｜ゆうしょう
-優勝者｜ゆうしょうしゃ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>実践｜じっせん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>践</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先生｜せんせい
-先駆｜えんく
-先進｜せんしん
-先進国｜せんしんこく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前進｜ぜんしん
-直進｜ちょくしん
-増進｜ぞうしん
-促進｜そくしん
-先進｜せんしん
-先進国｜せんしんこく
-促進効果｜そくしんこうか
-進路｜しんろ
-進出｜しんしゅつ
-進化｜しんか</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素直｜すなお
-素敵｜すてき</t>
+    <t>宛先｜あてさき
+連絡先｜れんらくさき
+先程｜さきほど
+行先｜ゆきさき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2909,10 +2921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2952,7 +2964,7 @@
         <v>308</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>237</v>
@@ -2969,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -2981,7 +2993,7 @@
         <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3012,7 +3024,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -3038,10 +3050,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -3098,7 +3110,7 @@
         <v>98</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3135,10 +3147,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3181,7 +3193,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -3198,7 +3210,7 @@
         <v>134</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>418</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3283,10 +3295,21 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -3299,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FBE25A-5774-436D-8C1C-E9DE4531361B}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3340,7 +3363,7 @@
         <v>392</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>72</v>
@@ -3369,7 +3392,7 @@
         <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="70.2" x14ac:dyDescent="0.45">
@@ -3389,7 +3412,7 @@
         <v>191</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3449,7 +3472,7 @@
         <v>143</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.45">
@@ -3480,7 +3503,7 @@
         <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>119</v>
@@ -3489,7 +3512,7 @@
         <v>120</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3509,7 +3532,7 @@
         <v>121</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3580,7 +3603,7 @@
         <v>200</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>247</v>
@@ -3600,7 +3623,7 @@
         <v>232</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>31</v>
@@ -3669,7 +3692,7 @@
         <v>58</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -3726,10 +3749,10 @@
         <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3752,7 +3775,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="115.8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="143.4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -3769,7 +3792,7 @@
         <v>268</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>469</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3797,10 +3820,10 @@
         <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>283</v>
@@ -3817,10 +3840,10 @@
         <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>321</v>
@@ -3840,7 +3863,7 @@
         <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>321</v>
@@ -3972,7 +3995,7 @@
         <v>178</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -4013,10 +4036,10 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -4071,7 +4094,7 @@
         <v>159</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -4079,10 +4102,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -4148,7 +4171,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="180" x14ac:dyDescent="0.45">
@@ -4181,7 +4204,7 @@
         <v>91</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4244,10 +4267,10 @@
         <v>34</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4266,10 +4289,10 @@
         <v>148</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4357,7 +4380,7 @@
         <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="76.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -4379,7 +4402,7 @@
         <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -4442,7 +4465,7 @@
         <v>171</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
@@ -4483,10 +4506,10 @@
         <v>61</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4497,7 +4520,7 @@
         <v>222</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -4519,7 +4542,7 @@
         <v>254</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -4560,10 +4583,10 @@
         <v>61</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -4582,10 +4605,10 @@
         <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -4598,8 +4621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C4610-9366-4F3B-A09E-05A72A5ED9D2}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4637,7 +4660,7 @@
         <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4780,7 +4803,7 @@
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>295</v>
@@ -4796,8 +4819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF931D-716E-4F13-8643-3EBEBFB8A889}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4846,7 +4869,7 @@
         <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4854,10 +4877,10 @@
         <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>114</v>
@@ -4877,7 +4900,7 @@
         <v>271</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>114</v>
@@ -4897,7 +4920,7 @@
         <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>114</v>
@@ -4923,10 +4946,10 @@
         <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4966,7 +4989,7 @@
         <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -4977,7 +5000,7 @@
         <v>252</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
@@ -4986,7 +5009,7 @@
         <v>123</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5023,10 +5046,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5034,19 +5057,19 @@
         <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -5054,10 +5077,10 @@
         <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -5068,7 +5091,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -5090,7 +5113,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -5098,10 +5121,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5134,7 +5157,7 @@
         <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5241,10 +5264,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5252,10 +5275,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -5268,8 +5291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB35074-C9E0-44FC-9F05-2522E661F8BA}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5369,7 +5392,7 @@
         <v>278</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5429,7 +5452,7 @@
         <v>130</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -5440,7 +5463,7 @@
         <v>230</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>124</v>
@@ -5500,7 +5523,7 @@
         <v>370</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>216</v>
@@ -5536,10 +5559,10 @@
         <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">

--- a/漢字（かんじ）/s.xlsx
+++ b/漢字（かんじ）/s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5CB00C-DB21-4D78-9D31-84C6251972A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97943029-D6C0-4E29-9505-3B7047F625D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="さ" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="512">
   <si>
     <t>さ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,11 +599,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>専門｜せんもん
-専門学校｜せんもんがっこう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>真</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -836,10 +831,6 @@
   </si>
   <si>
     <t>診</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>診断｜しんだん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1605,13 +1596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>採用｜さいよう
-採納｜さいのう
-採取｜さいしゅう
-採集｜さいしゅう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面白｜おもしろ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1621,12 +1605,6 @@
   </si>
   <si>
     <t>白髪｜しらが</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後｜さいご
-最終｜さいしゅう
-最中｜さいちゅう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1794,13 +1772,6 @@
   </si>
   <si>
     <t>視</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性格｜せいかく
-属性｜そくせい
-促成｜そくせい
-揮発性｜きはつせい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2269,12 +2240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正解｜せいかい
-正確｜せいかく
-正式｜せいしき</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正式｜せいしき
 形式｜けいしき
 方式｜ほうしき
@@ -2359,18 +2324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成績｜せいせき
-成功｜せいこう
-成長｜せいちょう
-育成｜いくせい
-完成｜かんせい
-達成｜たっせい
-養成｜ようせい
-成分｜せいぶん
-成分表｜せいぶんひょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>招聘｜しょうへい
 招聘状｜しょうへいじょう
 招待｜ようたい
@@ -2459,19 +2412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前進｜ぜんしん
-直進｜ちょくしん
-増進｜ぞうしん
-促進｜そくしん
-先進｜せんしん
-先進国｜せんしんこく
-促進効果｜そくしんこうか
-進路｜しんろ
-進出｜しんしゅつ
-進化｜しんか</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>素直｜すなお
 素敵｜すてき</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2482,6 +2422,41 @@
   </si>
   <si>
     <t>賛成｜さんせい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛先｜あてさき
+連絡先｜れんらくさき
+先程｜さきほど
+行先｜ゆきさき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後｜さいご
+最終｜さいしゅう
+最中｜さいちゅう
+最適｜さいてき
+最高｜さいこう
+最低｜さいてい
+最大｜さいだい
+最小｜さいしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>採用｜さいよう
+採納｜さいのう
+採取｜さいしゅう
+採集｜さいしゅう
+採点｜さいてん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>災</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>災難｜さいなん
+災害｜さいがい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2544,15 +2519,73 @@
 出動｜しゅつどう
 出演｜しゅつえん
 主催｜しゅさい
-出席｜しゅっせき</t>
+出席｜しゅっせき
+出荷｜しゅっか
+出版｜しゅっぱん
+出版社｜しゅっぱんしゃ</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宛先｜あてさき
-連絡先｜れんらくさき
-先程｜さきほど
-行先｜ゆきさき</t>
+    <t>診断｜しんだん
+診察｜しんさつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前進｜ぜんしん
+直進｜ちょくしん
+増進｜ぞうしん
+促進｜そくしん
+先進｜せんしん
+先進国｜せんしんこく
+促進効果｜そくしんこうか
+進路｜しんろ
+進出｜しんしゅつ
+進化｜しんか
+進度｜しんど
+進学｜しんがく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>親戚｜しんせき
+両親｜りょうしん
+親友｜しんゆう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成績｜せいせき
+成功｜せいこう
+成長｜せいちょう
+成人｜せいじん
+育成｜いくせい
+完成｜かんせい
+達成｜たっせい
+養成｜ようせい
+成分｜せいぶん
+成分表｜せいぶんひょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正解｜せいかい
+正確｜せいかく
+正式｜せいしき
+正常｜せいじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別｜せいべつ
+性格｜せいかく
+属性｜そくせい
+促成｜そくせい
+揮発性｜きはつせい
+性能｜せいのう
+性能評価｜せいのうひょうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>専門｜せんもん
+専攻｜せんこう
+専門学校｜せんもんがっこう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2921,10 +2954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2938,22 +2971,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -2961,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
@@ -2981,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -2993,7 +3026,7 @@
         <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3001,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -3024,16 +3057,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3041,19 +3074,19 @@
         <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -3061,10 +3094,10 @@
         <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -3076,7 +3109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -3084,13 +3117,13 @@
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>366</v>
+        <v>500</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3110,7 +3143,7 @@
         <v>98</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3118,10 +3151,10 @@
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3130,7 +3163,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3138,19 +3171,19 @@
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3158,19 +3191,19 @@
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
@@ -3187,10 +3220,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3198,19 +3231,19 @@
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>502</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>362</v>
+        <v>503</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3218,10 +3251,10 @@
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3229,10 +3262,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>234</v>
+        <v>150</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -3240,21 +3273,21 @@
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>285</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="56.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -3262,43 +3295,43 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>478</v>
+        <v>196</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -3306,10 +3339,21 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>506</v>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -3322,8 +3366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FBE25A-5774-436D-8C1C-E9DE4531361B}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3337,22 +3381,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3360,10 +3404,10 @@
         <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>72</v>
@@ -3392,7 +3436,7 @@
         <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="70.2" x14ac:dyDescent="0.45">
@@ -3409,10 +3453,10 @@
         <v>76</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3426,13 +3470,13 @@
         <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3443,16 +3487,16 @@
         <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -3460,19 +3504,19 @@
         <v>92</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.45">
@@ -3483,16 +3527,16 @@
         <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3503,7 +3547,7 @@
         <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>119</v>
@@ -3512,7 +3556,7 @@
         <v>120</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3523,7 +3567,7 @@
         <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>119</v>
@@ -3532,7 +3576,7 @@
         <v>121</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3543,7 +3587,7 @@
         <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>119</v>
@@ -3560,19 +3604,19 @@
         <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -3586,13 +3630,13 @@
         <v>101</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3600,19 +3644,19 @@
         <v>92</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="106.8" x14ac:dyDescent="0.45">
@@ -3620,10 +3664,10 @@
         <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>31</v>
@@ -3640,10 +3684,10 @@
         <v>92</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>31</v>
@@ -3660,10 +3704,10 @@
         <v>92</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>31</v>
@@ -3680,10 +3724,10 @@
         <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>31</v>
@@ -3692,7 +3736,7 @@
         <v>58</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -3700,19 +3744,19 @@
         <v>92</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3720,19 +3764,19 @@
         <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3740,19 +3784,19 @@
         <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3760,39 +3804,39 @@
         <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="143.4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:7" ht="184.8" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3800,19 +3844,19 @@
         <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3820,19 +3864,19 @@
         <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3840,19 +3884,19 @@
         <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3863,33 +3907,33 @@
         <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3900,13 +3944,13 @@
         <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3914,16 +3958,16 @@
         <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -3937,10 +3981,10 @@
         <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3959,10 +4003,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -3973,7 +4017,7 @@
         <v>88</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -3987,26 +4031,26 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="180" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" ht="216" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -4014,10 +4058,10 @@
         <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -4025,10 +4069,10 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4036,10 +4080,10 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -4047,10 +4091,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4058,10 +4102,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4069,10 +4113,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -4091,10 +4135,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -4102,10 +4146,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -4113,10 +4157,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -4124,10 +4168,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -4135,10 +4179,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -4146,10 +4190,10 @@
         <v>34</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4160,7 +4204,7 @@
         <v>33</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4171,7 +4215,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="180" x14ac:dyDescent="0.45">
@@ -4179,10 +4223,10 @@
         <v>34</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4193,7 +4237,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4204,7 +4248,7 @@
         <v>91</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4212,10 +4256,10 @@
         <v>34</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4223,10 +4267,10 @@
         <v>34</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4234,10 +4278,10 @@
         <v>34</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -4245,10 +4289,10 @@
         <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -4256,10 +4300,10 @@
         <v>34</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4267,54 +4311,54 @@
         <v>34</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4325,7 +4369,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4333,10 +4377,10 @@
         <v>61</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4347,7 +4391,7 @@
         <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
@@ -4369,7 +4413,7 @@
         <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4380,7 +4424,7 @@
         <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="76.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -4391,7 +4435,7 @@
         <v>102</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4402,7 +4446,7 @@
         <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -4410,7 +4454,7 @@
         <v>61</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4421,7 +4465,7 @@
         <v>26</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4432,7 +4476,7 @@
         <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
@@ -4451,10 +4495,10 @@
         <v>61</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4462,10 +4506,10 @@
         <v>61</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
@@ -4473,10 +4517,10 @@
         <v>61</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4484,10 +4528,10 @@
         <v>61</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4495,10 +4539,10 @@
         <v>61</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4506,10 +4550,10 @@
         <v>61</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4517,10 +4561,10 @@
         <v>61</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -4528,10 +4572,10 @@
         <v>61</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4539,10 +4583,10 @@
         <v>61</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -4550,10 +4594,10 @@
         <v>61</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -4561,10 +4605,10 @@
         <v>61</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4572,10 +4616,10 @@
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
@@ -4583,10 +4627,10 @@
         <v>61</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -4594,10 +4638,10 @@
         <v>61</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4605,10 +4649,10 @@
         <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -4632,13 +4676,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4657,10 +4701,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4668,55 +4712,55 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
@@ -4727,18 +4771,18 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4760,7 +4804,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4776,37 +4820,37 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" t="s">
         <v>309</v>
-      </c>
-      <c r="C15" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4819,8 +4863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF931D-716E-4F13-8643-3EBEBFB8A889}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4834,22 +4878,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -4860,7 +4904,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>114</v>
@@ -4869,7 +4913,7 @@
         <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4877,10 +4921,10 @@
         <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>114</v>
@@ -4897,19 +4941,19 @@
         <v>133</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="58.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -4920,16 +4964,16 @@
         <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -4940,19 +4984,19 @@
         <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
@@ -4960,7 +5004,7 @@
         <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>137</v>
+        <v>511</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>63</v>
@@ -4977,10 +5021,10 @@
         <v>133</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>63</v>
@@ -4989,7 +5033,7 @@
         <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -4997,10 +5041,10 @@
         <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
@@ -5009,7 +5053,7 @@
         <v>123</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5017,19 +5061,19 @@
         <v>133</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -5037,19 +5081,19 @@
         <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5057,19 +5101,19 @@
         <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -5077,13 +5121,13 @@
         <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -5091,7 +5135,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -5102,10 +5146,10 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="162" x14ac:dyDescent="0.45">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="180" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -5113,7 +5157,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -5121,10 +5165,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5135,7 +5179,7 @@
         <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5146,7 +5190,7 @@
         <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="162" x14ac:dyDescent="0.45">
@@ -5157,7 +5201,7 @@
         <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5168,10 +5212,10 @@
         <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="126" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -5179,7 +5223,7 @@
         <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>393</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -5198,10 +5242,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -5209,10 +5253,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -5220,10 +5264,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5231,10 +5275,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5242,10 +5286,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5253,10 +5297,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -5264,10 +5308,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5275,10 +5319,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -5306,24 +5350,24 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>78</v>
@@ -5337,13 +5381,13 @@
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
@@ -5357,13 +5401,13 @@
     </row>
     <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>124</v>
@@ -5377,33 +5421,33 @@
     </row>
     <row r="5" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>124</v>
@@ -5417,13 +5461,13 @@
     </row>
     <row r="7" spans="1:7" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>124</v>
@@ -5432,18 +5476,18 @@
         <v>129</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>124</v>
@@ -5452,38 +5496,38 @@
         <v>130</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>124</v>
@@ -5497,105 +5541,105 @@
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/s.xlsx
+++ b/漢字（かんじ）/s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97943029-D6C0-4E29-9505-3B7047F625D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831165AE-2153-4F67-B01A-0D7698FCF262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="514">
   <si>
     <t>さ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1525,11 +1525,6 @@
   </si>
   <si>
     <t>方針｜ほうしん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>季節｜きせつ
-節約｜せつやくｋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1982,14 +1977,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>職業｜しょくぎょう
-教職｜きょうしょく
-求職｜きゅうしょく
-在職｜ざいしょく
-職人技｜しょくにんわざ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>湿度｜しつど
 湿潤｜しつじゅん
 保湿｜ほしつ
@@ -2099,12 +2086,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幻視｜げんし
-無視｜むし
-視聴｜しちょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>速度｜そくど
 速成｜そくせい
 速報｜そくほう
@@ -2294,13 +2275,6 @@
     <t>創造｜そうぞう
 創造力｜そうぞうりょく
 創作｜そうさく
-創設｜そうせつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定｜せってい
-設計｜せっけい
-設置｜せっち
 創設｜そうせつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2586,6 +2560,44 @@
     <t>専門｜せんもん
 専攻｜せんこう
 専門学校｜せんもんがっこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職業｜しょくぎょう
+公職｜こうしょく
+教職｜きょうしょく
+求職｜きゅうしょく
+在職｜ざいしょく
+職人技｜しょくにんわざ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化粧｜けしょう
+化粧品｜けしょうひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻視｜げんし
+無視｜むし
+視聴｜しちょう
+視野｜しや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定｜せってい
+設計｜せっけい
+設置｜せっち
+設備｜せつび
+創設｜そうせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季節｜きせつ
+節約｜せつやく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2997,7 +3009,7 @@
         <v>306</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>235</v>
@@ -3014,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3026,7 +3038,7 @@
         <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3057,7 +3069,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -3083,10 +3095,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -3117,7 +3129,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
@@ -3143,7 +3155,7 @@
         <v>98</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3163,7 +3175,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3180,10 +3192,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3200,10 +3212,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
@@ -3220,10 +3232,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3231,10 +3243,10 @@
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>280</v>
@@ -3243,7 +3255,7 @@
         <v>134</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3254,7 +3266,7 @@
         <v>149</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3339,10 +3351,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -3350,10 +3362,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -3364,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FBE25A-5774-436D-8C1C-E9DE4531361B}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3399,15 +3411,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>441</v>
+        <v>511</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>72</v>
@@ -3436,7 +3448,7 @@
         <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="70.2" x14ac:dyDescent="0.45">
@@ -3456,7 +3468,7 @@
         <v>190</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3507,7 +3519,7 @@
         <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>139</v>
@@ -3516,7 +3528,7 @@
         <v>142</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.45">
@@ -3547,7 +3559,7 @@
         <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>119</v>
@@ -3556,7 +3568,7 @@
         <v>120</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3567,7 +3579,7 @@
         <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>119</v>
@@ -3576,7 +3588,7 @@
         <v>121</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3587,7 +3599,7 @@
         <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>119</v>
@@ -3647,7 +3659,7 @@
         <v>198</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>245</v>
@@ -3667,7 +3679,7 @@
         <v>230</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>31</v>
@@ -3719,7 +3731,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="108" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>92</v>
       </c>
@@ -3736,7 +3748,7 @@
         <v>58</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>422</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -3773,10 +3785,10 @@
         <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3784,19 +3796,19 @@
         <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3804,10 +3816,10 @@
         <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>53</v>
@@ -3824,10 +3836,10 @@
         <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>265</v>
@@ -3836,7 +3848,7 @@
         <v>266</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3844,10 +3856,10 @@
         <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>281</v>
@@ -3856,7 +3868,7 @@
         <v>282</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3864,10 +3876,10 @@
         <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>281</v>
@@ -3884,10 +3896,10 @@
         <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>319</v>
@@ -3896,7 +3908,7 @@
         <v>318</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3907,13 +3919,13 @@
         <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>319</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3924,16 +3936,16 @@
         <v>155</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>318</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3947,10 +3959,10 @@
         <v>193</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3964,10 +3976,10 @@
         <v>138</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -3981,10 +3993,10 @@
         <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4003,10 +4015,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4017,7 +4029,7 @@
         <v>88</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -4039,7 +4051,7 @@
         <v>177</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4050,7 +4062,7 @@
         <v>192</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -4080,10 +4092,10 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -4102,10 +4114,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4138,7 +4150,7 @@
         <v>158</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -4146,10 +4158,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -4215,7 +4227,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="180" x14ac:dyDescent="0.45">
@@ -4226,7 +4238,7 @@
         <v>145</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4237,7 +4249,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4248,7 +4260,7 @@
         <v>91</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4281,7 +4293,7 @@
         <v>211</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -4311,10 +4323,10 @@
         <v>34</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4333,10 +4345,10 @@
         <v>147</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4405,89 +4417,89 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>96</v>
+        <v>509</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="76.8" customHeight="1" x14ac:dyDescent="0.45">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -4495,54 +4507,54 @@
         <v>61</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>389</v>
+        <v>212</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>390</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4550,54 +4562,54 @@
         <v>61</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>220</v>
+        <v>429</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="90" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -4605,32 +4617,32 @@
         <v>61</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>459</v>
+        <v>314</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -4638,21 +4650,32 @@
         <v>61</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>228</v>
+        <v>457</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>432</v>
+        <v>228</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -4704,7 +4727,7 @@
         <v>195</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4712,10 +4735,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -4738,7 +4761,7 @@
         <v>313</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4757,10 +4780,10 @@
         <v>298</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
@@ -4804,7 +4827,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4839,15 +4862,15 @@
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>293</v>
@@ -4863,8 +4886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF931D-716E-4F13-8643-3EBEBFB8A889}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4904,7 +4927,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>114</v>
@@ -4913,7 +4936,7 @@
         <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4921,10 +4944,10 @@
         <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>114</v>
@@ -4944,7 +4967,7 @@
         <v>269</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>114</v>
@@ -4964,7 +4987,7 @@
         <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>114</v>
@@ -4990,10 +5013,10 @@
         <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -5004,7 +5027,7 @@
         <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>63</v>
@@ -5033,7 +5056,7 @@
         <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -5044,7 +5067,7 @@
         <v>250</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
@@ -5053,7 +5076,7 @@
         <v>123</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5073,7 +5096,7 @@
         <v>194</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>349</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -5090,10 +5113,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5101,19 +5124,19 @@
         <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -5121,10 +5144,10 @@
         <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5135,7 +5158,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -5157,7 +5180,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -5165,10 +5188,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5201,7 +5224,7 @@
         <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5223,7 +5246,7 @@
         <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -5308,10 +5331,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5319,10 +5342,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -5427,7 +5450,7 @@
         <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>124</v>
@@ -5436,7 +5459,7 @@
         <v>276</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5467,7 +5490,7 @@
         <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>124</v>
@@ -5496,7 +5519,7 @@
         <v>130</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -5507,7 +5530,7 @@
         <v>228</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>124</v>
@@ -5527,7 +5550,7 @@
         <v>249</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>124</v>
@@ -5544,10 +5567,10 @@
         <v>171</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>124</v>
@@ -5564,10 +5587,10 @@
         <v>171</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>214</v>
@@ -5581,10 +5604,10 @@
         <v>171</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -5592,10 +5615,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -5603,10 +5626,10 @@
         <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5614,10 +5637,10 @@
         <v>171</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5628,7 +5651,7 @@
         <v>219</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5636,10 +5659,10 @@
         <v>218</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/s.xlsx
+++ b/漢字（かんじ）/s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831165AE-2153-4F67-B01A-0D7698FCF262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197EC8D9-8B24-4FBC-BF13-E4523FA9035D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="さ" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="517">
   <si>
     <t>さ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -969,11 +969,6 @@
   </si>
   <si>
     <t>趣味｜しゅみ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>着手｜ちゃくしゅ
-手術｜ちゅじゅつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2083,13 +2078,6 @@
   <si>
     <t>妊娠｜にんしん
 妊娠検査｜にんしんけんさ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度｜そくど
-速成｜そくせい
-速報｜そくほう
-速報版｜そくほうばん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2598,6 +2586,32 @@
   <si>
     <t>季節｜きせつ
 節約｜せつやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度｜そくど
+速成｜そくせい
+速報｜そくほう
+速報版｜そくほうばん
+速達｜そくたつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着手｜ちゃくしゅ
+手術｜ちゅじゅつ
+拍手｜はくしゅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半袖｜はんそで</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2983,22 +2997,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -3006,19 +3020,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
@@ -3026,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3038,7 +3052,7 @@
         <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3046,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -3069,16 +3083,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3095,10 +3109,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -3129,7 +3143,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
@@ -3155,7 +3169,7 @@
         <v>98</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3175,7 +3189,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3183,19 +3197,19 @@
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3212,10 +3226,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
@@ -3232,10 +3246,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3243,19 +3257,19 @@
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3266,7 +3280,7 @@
         <v>149</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3288,7 +3302,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3296,10 +3310,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="56.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -3351,10 +3365,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -3362,10 +3376,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -3378,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FBE25A-5774-436D-8C1C-E9DE4531361B}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3393,22 +3407,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3416,10 +3430,10 @@
         <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>72</v>
@@ -3448,7 +3462,7 @@
         <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="70.2" x14ac:dyDescent="0.45">
@@ -3468,7 +3482,7 @@
         <v>190</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3499,7 +3513,7 @@
         <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>139</v>
@@ -3519,7 +3533,7 @@
         <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>139</v>
@@ -3528,7 +3542,7 @@
         <v>142</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.45">
@@ -3539,7 +3553,7 @@
         <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>139</v>
@@ -3559,7 +3573,7 @@
         <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>119</v>
@@ -3568,7 +3582,7 @@
         <v>120</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3579,7 +3593,7 @@
         <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>119</v>
@@ -3588,7 +3602,7 @@
         <v>121</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3599,7 +3613,7 @@
         <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>119</v>
@@ -3628,7 +3642,7 @@
         <v>178</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -3642,13 +3656,13 @@
         <v>101</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3659,16 +3673,16 @@
         <v>198</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="106.8" x14ac:dyDescent="0.45">
@@ -3676,10 +3690,10 @@
         <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>31</v>
@@ -3696,10 +3710,10 @@
         <v>92</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>31</v>
@@ -3736,10 +3750,10 @@
         <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>31</v>
@@ -3748,7 +3762,7 @@
         <v>58</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -3756,19 +3770,19 @@
         <v>92</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3776,19 +3790,19 @@
         <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3796,19 +3810,19 @@
         <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3816,10 +3830,10 @@
         <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>53</v>
@@ -3836,19 +3850,19 @@
         <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3856,19 +3870,19 @@
         <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="E24" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3876,19 +3890,19 @@
         <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3896,19 +3910,19 @@
         <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3919,13 +3933,13 @@
         <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3936,16 +3950,16 @@
         <v>155</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3959,10 +3973,10 @@
         <v>193</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3976,10 +3990,10 @@
         <v>138</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -3993,10 +4007,10 @@
         <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4015,10 +4029,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4029,7 +4043,7 @@
         <v>88</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -4051,7 +4065,7 @@
         <v>177</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4062,7 +4076,7 @@
         <v>192</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -4070,10 +4084,10 @@
         <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -4081,10 +4095,10 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4092,10 +4106,10 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -4114,13 +4128,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -4128,7 +4142,7 @@
         <v>223</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>226</v>
+        <v>513</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -4150,7 +4164,7 @@
         <v>158</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -4158,10 +4172,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -4169,10 +4183,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -4180,10 +4194,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -4191,10 +4205,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -4202,10 +4216,10 @@
         <v>34</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4216,7 +4230,7 @@
         <v>33</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4227,7 +4241,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="180" x14ac:dyDescent="0.45">
@@ -4238,7 +4252,7 @@
         <v>145</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4249,7 +4263,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4260,7 +4274,7 @@
         <v>91</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4293,7 +4307,7 @@
         <v>211</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -4301,10 +4315,10 @@
         <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -4312,10 +4326,10 @@
         <v>34</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4323,10 +4337,10 @@
         <v>34</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4337,7 +4351,7 @@
         <v>146</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4345,10 +4359,10 @@
         <v>147</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4370,7 +4384,7 @@
         <v>148</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4381,7 +4395,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4403,7 +4417,7 @@
         <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
@@ -4422,10 +4436,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4436,7 +4450,7 @@
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4447,7 +4461,7 @@
         <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
@@ -4469,7 +4483,7 @@
         <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
@@ -4488,7 +4502,7 @@
         <v>26</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4499,7 +4513,7 @@
         <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -4532,7 +4546,7 @@
         <v>170</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -4554,7 +4568,7 @@
         <v>212</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4562,10 +4576,10 @@
         <v>61</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4573,10 +4587,10 @@
         <v>61</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4587,7 +4601,7 @@
         <v>220</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
@@ -4595,10 +4609,10 @@
         <v>61</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4606,10 +4620,10 @@
         <v>61</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -4617,10 +4631,10 @@
         <v>61</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -4628,10 +4642,10 @@
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4639,10 +4653,10 @@
         <v>61</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -4650,10 +4664,10 @@
         <v>61</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
@@ -4661,10 +4675,10 @@
         <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4672,10 +4686,10 @@
         <v>61</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -4688,8 +4702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C4610-9366-4F3B-A09E-05A72A5ED9D2}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4699,13 +4713,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4727,7 +4741,7 @@
         <v>195</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4735,55 +4749,55 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
@@ -4794,7 +4808,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -4827,7 +4841,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4843,37 +4857,37 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" t="s">
         <v>308</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C15" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4886,7 +4900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF931D-716E-4F13-8643-3EBEBFB8A889}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4901,22 +4915,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -4927,7 +4941,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>114</v>
@@ -4936,7 +4950,7 @@
         <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4944,10 +4958,10 @@
         <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>114</v>
@@ -4964,10 +4978,10 @@
         <v>133</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>114</v>
@@ -4987,16 +5001,16 @@
         <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -5007,16 +5021,16 @@
         <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -5027,7 +5041,7 @@
         <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>63</v>
@@ -5056,7 +5070,7 @@
         <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -5064,10 +5078,10 @@
         <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
@@ -5076,7 +5090,7 @@
         <v>123</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5087,7 +5101,7 @@
         <v>216</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>63</v>
@@ -5096,7 +5110,7 @@
         <v>194</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -5104,19 +5118,19 @@
         <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5124,19 +5138,19 @@
         <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -5144,10 +5158,10 @@
         <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5158,7 +5172,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -5169,7 +5183,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="180" x14ac:dyDescent="0.45">
@@ -5180,7 +5194,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -5188,10 +5202,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5224,7 +5238,7 @@
         <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5235,7 +5249,7 @@
         <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="126" x14ac:dyDescent="0.45">
@@ -5246,7 +5260,7 @@
         <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -5276,10 +5290,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -5287,10 +5301,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5298,10 +5312,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5309,10 +5323,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5320,10 +5334,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -5331,10 +5345,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5342,10 +5356,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -5358,8 +5372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB35074-C9E0-44FC-9F05-2522E661F8BA}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5373,13 +5387,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -5390,7 +5404,7 @@
         <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>78</v>
@@ -5410,7 +5424,7 @@
         <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
@@ -5430,7 +5444,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>124</v>
@@ -5450,16 +5464,16 @@
         <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5470,7 +5484,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>124</v>
@@ -5490,7 +5504,7 @@
         <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>124</v>
@@ -5499,18 +5513,18 @@
         <v>129</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>124</v>
@@ -5519,7 +5533,7 @@
         <v>130</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>439</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -5527,19 +5541,19 @@
         <v>171</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5547,10 +5561,10 @@
         <v>171</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>124</v>
@@ -5567,19 +5581,19 @@
         <v>171</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5587,10 +5601,10 @@
         <v>171</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>214</v>
@@ -5604,10 +5618,19 @@
         <v>171</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>368</v>
+      <c r="E13" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -5615,10 +5638,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -5626,10 +5649,10 @@
         <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5637,10 +5660,10 @@
         <v>171</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5651,7 +5674,7 @@
         <v>219</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5659,10 +5682,10 @@
         <v>218</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/s.xlsx
+++ b/漢字（かんじ）/s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197EC8D9-8B24-4FBC-BF13-E4523FA9035D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF528BE-3BC5-4416-8849-BFBAECBDC014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="521">
   <si>
     <t>さ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1406,12 +1406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>証明｜しょうめい
-保証｜ほしょう
-信用保証｜しんようほしょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>故障｜こしょう
 障害｜しょうがい
 障碍｜しょうがい
@@ -1458,11 +1452,6 @@
   </si>
   <si>
     <t>息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利息｜りそく
-休息｜きゅうそく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1989,13 +1978,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左折｜させつ
-右折｜うせつ
-左折禁止｜させつきんし
-右折禁止｜うせつきんし</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>路線｜ろせん
 環状線｜かんじょうせん</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2264,25 +2246,6 @@
 創造力｜そうぞうりょく
 創作｜そうさく
 創設｜そうせつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">認識｜にんしき
-意識｜いしき
-標識｜ひょうしき
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>知識｜ちしき</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2494,6 +2457,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>親戚｜しんせき
+両親｜りょうしん
+親友｜しんゆう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成績｜せいせき
+成功｜せいこう
+成長｜せいちょう
+成人｜せいじん
+育成｜いくせい
+完成｜かんせい
+達成｜たっせい
+養成｜ようせい
+成分｜せいぶん
+成分表｜せいぶんひょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正解｜せいかい
+正確｜せいかく
+正式｜せいしき
+正常｜せいじょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別｜せいべつ
+性格｜せいかく
+属性｜そくせい
+促成｜そくせい
+揮発性｜きはつせい
+性能｜せいのう
+性能評価｜せいのうひょうか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>専門｜せんもん
+専攻｜せんこう
+専門学校｜せんもんがっこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職業｜しょくぎょう
+公職｜こうしょく
+教職｜きょうしょく
+求職｜きゅうしょく
+在職｜ざいしょく
+職人技｜しょくにんわざ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化粧｜けしょう
+化粧品｜けしょうひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻視｜げんし
+無視｜むし
+視聴｜しちょう
+視野｜しや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定｜せってい
+設計｜せっけい
+設置｜せっち
+設備｜せつび
+創設｜そうせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季節｜きせつ
+節約｜せつやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度｜そくど
+速成｜そくせい
+速報｜そくほう
+速報版｜そくほうばん
+速達｜そくたつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半袖｜はんそで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>前進｜ぜんしん
 直進｜ちょくしん
 増進｜ぞうしん
@@ -2504,114 +2567,83 @@
 進路｜しんろ
 進出｜しんしゅつ
 進化｜しんか
+進歩｜しんぽ
 進度｜しんど
 進学｜しんがく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>親戚｜しんせき
-両親｜りょうしん
-親友｜しんゆう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成績｜せいせき
-成功｜せいこう
-成長｜せいちょう
-成人｜せいじん
-育成｜いくせい
-完成｜かんせい
-達成｜たっせい
-養成｜ようせい
-成分｜せいぶん
-成分表｜せいぶんひょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正解｜せいかい
-正確｜せいかく
-正式｜せいしき
-正常｜せいじょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性別｜せいべつ
-性格｜せいかく
-属性｜そくせい
-促成｜そくせい
-揮発性｜きはつせい
-性能｜せいのう
-性能評価｜せいのうひょうか</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>専門｜せんもん
-専攻｜せんこう
-専門学校｜せんもんがっこう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>職業｜しょくぎょう
-公職｜こうしょく
-教職｜きょうしょく
-求職｜きゅうしょく
-在職｜ざいしょく
-職人技｜しょくにんわざ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化粧｜けしょう
-化粧品｜けしょうひん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻視｜げんし
-無視｜むし
-視聴｜しちょう
-視野｜しや</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定｜せってい
-設計｜せっけい
-設置｜せっち
-設備｜せつび
-創設｜そうせつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>季節｜きせつ
-節約｜せつやく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度｜そくど
-速成｜そくせい
-速報｜そくほう
-速報版｜そくほうばん
-速達｜そくたつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>着手｜ちゃくしゅ
-手術｜ちゅじゅつ
+手術｜しゅじゅつ
 拍手｜はくしゅ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>袖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>そで</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半袖｜はんそで</t>
+    <t>証明｜しょうめい
+保証｜ほしょう
+信用保証｜しんようほしょう
+領収証｜りょうしゅうしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息｜りそく
+休息｜きゅうそく
+貯金利息｜ちょきんりそく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左折｜させつ
+右折｜うせつ
+左折禁止｜させつきんし
+右折禁止｜うせつきんし
+骨折｜こっせつ
+折角｜せっかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組織｜そしき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衝突｜しょうとつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">認識｜にんしき
+意識｜いしき
+標識｜ひょうしき
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知識｜ちしき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+常識｜じょうしき</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3023,7 +3055,7 @@
         <v>305</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>234</v>
@@ -3040,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3052,7 +3084,7 @@
         <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3060,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -3083,16 +3115,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3109,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -3143,7 +3175,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
@@ -3169,7 +3201,7 @@
         <v>98</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3189,7 +3221,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3200,16 +3232,16 @@
         <v>278</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3226,10 +3258,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
@@ -3246,10 +3278,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3257,10 +3289,10 @@
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>279</v>
@@ -3269,7 +3301,7 @@
         <v>134</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3280,7 +3312,7 @@
         <v>149</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3365,10 +3397,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -3376,10 +3408,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -3390,10 +3422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FBE25A-5774-436D-8C1C-E9DE4531361B}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3430,10 +3462,10 @@
         <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>72</v>
@@ -3462,10 +3494,10 @@
         <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="70.2" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>92</v>
       </c>
@@ -3482,7 +3514,7 @@
         <v>190</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>473</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3533,7 +3565,7 @@
         <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>139</v>
@@ -3542,7 +3574,7 @@
         <v>142</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.45">
@@ -3573,7 +3605,7 @@
         <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>119</v>
@@ -3582,7 +3614,7 @@
         <v>120</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3593,7 +3625,7 @@
         <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>119</v>
@@ -3602,7 +3634,7 @@
         <v>121</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3613,7 +3645,7 @@
         <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>119</v>
@@ -3673,7 +3705,7 @@
         <v>198</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>244</v>
@@ -3693,7 +3725,7 @@
         <v>229</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>31</v>
@@ -3762,7 +3794,7 @@
         <v>58</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -3799,10 +3831,10 @@
         <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3810,19 +3842,19 @@
         <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3830,10 +3862,10 @@
         <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>53</v>
@@ -3850,10 +3882,10 @@
         <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>264</v>
@@ -3862,7 +3894,7 @@
         <v>265</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3870,10 +3902,10 @@
         <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>280</v>
@@ -3882,7 +3914,7 @@
         <v>281</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3890,10 +3922,10 @@
         <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>280</v>
@@ -3910,10 +3942,10 @@
         <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>318</v>
@@ -3922,7 +3954,7 @@
         <v>317</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3933,13 +3965,13 @@
         <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>318</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3950,16 +3982,16 @@
         <v>155</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>317</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3973,10 +4005,10 @@
         <v>193</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3990,10 +4022,10 @@
         <v>138</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -4007,10 +4039,10 @@
         <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4029,10 +4061,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4043,7 +4075,7 @@
         <v>88</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -4057,7 +4089,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="216" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" ht="234" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -4065,7 +4097,7 @@
         <v>177</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4076,7 +4108,7 @@
         <v>192</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -4095,10 +4127,10 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4106,10 +4138,10 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -4128,10 +4160,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4142,7 +4174,7 @@
         <v>223</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -4164,7 +4196,7 @@
         <v>158</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -4172,10 +4204,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -4183,10 +4215,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -4241,7 +4273,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="180" x14ac:dyDescent="0.45">
@@ -4252,7 +4284,7 @@
         <v>145</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4263,7 +4295,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4274,7 +4306,7 @@
         <v>91</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4307,7 +4339,7 @@
         <v>211</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -4315,10 +4347,10 @@
         <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -4337,10 +4369,10 @@
         <v>34</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4359,10 +4391,10 @@
         <v>147</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4436,10 +4468,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4450,7 +4482,7 @@
         <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4461,7 +4493,7 @@
         <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
@@ -4483,7 +4515,7 @@
         <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
@@ -4505,7 +4537,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>61</v>
       </c>
@@ -4513,7 +4545,7 @@
         <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>324</v>
+        <v>513</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -4546,7 +4578,7 @@
         <v>170</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -4568,7 +4600,7 @@
         <v>212</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4576,10 +4608,10 @@
         <v>61</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4587,10 +4619,10 @@
         <v>61</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4601,7 +4633,7 @@
         <v>220</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
@@ -4623,7 +4655,7 @@
         <v>251</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -4664,10 +4696,10 @@
         <v>61</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
@@ -4678,7 +4710,7 @@
         <v>227</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4686,10 +4718,21 @@
         <v>61</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>429</v>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4784,7 @@
         <v>195</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4749,10 +4792,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -4775,7 +4818,7 @@
         <v>312</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4794,10 +4837,10 @@
         <v>297</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
@@ -4808,7 +4851,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -4841,7 +4884,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4876,15 +4919,15 @@
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>292</v>
@@ -4900,8 +4943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF931D-716E-4F13-8643-3EBEBFB8A889}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4941,7 +4984,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>114</v>
@@ -4950,7 +4993,7 @@
         <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4958,10 +5001,10 @@
         <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>114</v>
@@ -4981,7 +5024,7 @@
         <v>268</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>114</v>
@@ -5001,7 +5044,7 @@
         <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>114</v>
@@ -5027,10 +5070,10 @@
         <v>114</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -5041,7 +5084,7 @@
         <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>63</v>
@@ -5070,7 +5113,7 @@
         <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -5081,7 +5124,7 @@
         <v>249</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
@@ -5090,7 +5133,7 @@
         <v>123</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5110,7 +5153,7 @@
         <v>194</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -5127,30 +5170,30 @@
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="108" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>423</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -5158,10 +5201,10 @@
         <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5172,7 +5215,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -5183,7 +5226,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="180" x14ac:dyDescent="0.45">
@@ -5194,7 +5237,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -5202,10 +5245,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5238,7 +5281,7 @@
         <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5260,7 +5303,7 @@
         <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -5312,10 +5355,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5323,10 +5366,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5334,10 +5377,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -5345,10 +5388,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5356,10 +5399,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -5370,10 +5413,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB35074-C9E0-44FC-9F05-2522E661F8BA}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5416,15 +5459,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>516</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>254</v>
+        <v>517</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
@@ -5436,15 +5479,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>124</v>
@@ -5461,10 +5504,10 @@
         <v>165</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>124</v>
@@ -5473,18 +5516,18 @@
         <v>275</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>256</v>
+        <v>379</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>124</v>
@@ -5501,10 +5544,10 @@
         <v>171</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>124</v>
@@ -5516,15 +5559,15 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>228</v>
+        <v>353</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>124</v>
@@ -5533,18 +5576,18 @@
         <v>130</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.45">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>432</v>
+        <v>228</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>124</v>
@@ -5556,15 +5599,15 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>124</v>
@@ -5576,35 +5619,35 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>361</v>
+        <v>248</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>472</v>
+        <v>360</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>214</v>
@@ -5613,24 +5656,24 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>367</v>
+        <v>469</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -5638,10 +5681,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -5649,10 +5692,10 @@
         <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5660,21 +5703,21 @@
         <v>171</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>219</v>
+        <v>406</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5682,10 +5725,21 @@
         <v>218</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>379</v>
+        <v>219</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/s.xlsx
+++ b/漢字（かんじ）/s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF528BE-3BC5-4416-8849-BFBAECBDC014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3BB3B2-A72E-4944-9D13-3F5D29D94F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="さ" sheetId="1" r:id="rId1"/>
@@ -2305,12 +2305,6 @@
   </si>
   <si>
     <t>船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座席｜ざせき
-座席予約｜ざせきよやく
-欠席｜けっせき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2644,6 +2638,13 @@
       <t xml:space="preserve">
 常識｜じょうしき</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座席｜ざせき
+座席予約｜ざせきよやく
+欠席｜けっせき
+出席｜しゅっせき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3175,7 +3176,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
@@ -3289,10 +3290,10 @@
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>279</v>
@@ -3301,7 +3302,7 @@
         <v>134</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3312,7 +3313,7 @@
         <v>149</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3408,10 +3409,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -3424,8 +3425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FBE25A-5774-436D-8C1C-E9DE4531361B}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3465,7 +3466,7 @@
         <v>384</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>72</v>
@@ -3514,7 +3515,7 @@
         <v>190</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3794,7 +3795,7 @@
         <v>58</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -3894,7 +3895,7 @@
         <v>265</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3982,7 +3983,7 @@
         <v>155</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>357</v>
@@ -4097,7 +4098,7 @@
         <v>177</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4108,7 +4109,7 @@
         <v>192</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -4174,7 +4175,7 @@
         <v>223</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -4468,10 +4469,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4545,7 +4546,7 @@
         <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -4655,7 +4656,7 @@
         <v>251</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -4729,10 +4730,10 @@
         <v>61</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -4745,8 +4746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C4610-9366-4F3B-A09E-05A72A5ED9D2}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4784,7 +4785,7 @@
         <v>195</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4943,8 +4944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF931D-716E-4F13-8643-3EBEBFB8A889}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4993,7 +4994,7 @@
         <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5044,7 +5045,7 @@
         <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>114</v>
@@ -5084,7 +5085,7 @@
         <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>63</v>
@@ -5113,7 +5114,7 @@
         <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -5153,7 +5154,7 @@
         <v>194</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -5181,10 +5182,10 @@
         <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>63</v>
@@ -5193,7 +5194,7 @@
         <v>420</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -5215,7 +5216,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -5237,7 +5238,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -5303,7 +5304,7 @@
         <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -5415,8 +5416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB35074-C9E0-44FC-9F05-2522E661F8BA}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5464,10 +5465,10 @@
         <v>165</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
@@ -5576,7 +5577,7 @@
         <v>130</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5636,7 +5637,7 @@
         <v>333</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -5667,13 +5668,13 @@
         <v>469</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">

--- a/漢字（かんじ）/s.xlsx
+++ b/漢字（かんじ）/s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3BB3B2-A72E-4944-9D13-3F5D29D94F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B805F0-3978-44AF-B106-59DFD78C0012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="さ" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="522">
   <si>
     <t>さ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,10 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>植物｜しょくぶつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>症</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -888,11 +884,6 @@
   </si>
   <si>
     <t>洒</t>
-  </si>
-  <si>
-    <t>明細｜めいさい
-詳細｜しょうさい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>細</t>
@@ -2645,6 +2636,22 @@
 座席予約｜ざせきよやく
 欠席｜けっせき
 出席｜しゅっせき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理｜しゅうり
+修復｜しゅうふく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明細｜めいさい
+詳細｜しょうさい
+細胞｜さいぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物｜しょくぶつ
+植民｜しょくみん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3015,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3030,22 +3037,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -3053,19 +3060,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
@@ -3073,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -3085,7 +3092,7 @@
         <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3093,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -3116,36 +3123,36 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>206</v>
+        <v>520</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -3153,10 +3160,10 @@
         <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -3176,13 +3183,13 @@
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3199,10 +3206,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -3210,10 +3217,10 @@
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3222,7 +3229,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3230,19 +3237,19 @@
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3250,19 +3257,19 @@
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
@@ -3279,10 +3286,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -3290,19 +3297,19 @@
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3310,10 +3317,10 @@
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3321,10 +3328,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -3335,7 +3342,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3343,10 +3350,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="56.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -3379,7 +3386,7 @@
         <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -3387,10 +3394,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -3398,10 +3405,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -3409,10 +3416,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -3423,10 +3430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FBE25A-5774-436D-8C1C-E9DE4531361B}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3440,33 +3447,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>72</v>
@@ -3480,13 +3487,13 @@
     </row>
     <row r="3" spans="1:7" ht="108" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>76</v>
@@ -3495,238 +3502,238 @@
         <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="106.8" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>31</v>
@@ -3740,13 +3747,13 @@
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>31</v>
@@ -3754,19 +3761,19 @@
       <c r="F16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>84</v>
+      <c r="G16" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>31</v>
@@ -3780,13 +3787,13 @@
     </row>
     <row r="18" spans="1:7" ht="108" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>31</v>
@@ -3795,167 +3802,167 @@
         <v>58</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="184.8" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3966,13 +3973,13 @@
         <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3980,19 +3987,19 @@
         <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4003,13 +4010,13 @@
         <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4017,16 +4024,16 @@
         <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -4040,10 +4047,10 @@
         <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4062,10 +4069,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4073,10 +4080,10 @@
         <v>48</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -4084,10 +4091,10 @@
         <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="234" x14ac:dyDescent="0.45">
@@ -4095,10 +4102,10 @@
         <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4106,10 +4113,10 @@
         <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -4117,10 +4124,10 @@
         <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -4128,10 +4135,10 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4139,10 +4146,10 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -4150,10 +4157,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4161,10 +4168,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4172,10 +4179,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -4194,10 +4201,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -4205,10 +4212,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -4216,10 +4223,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -4227,10 +4234,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -4238,10 +4245,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -4249,10 +4256,10 @@
         <v>34</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4263,7 +4270,7 @@
         <v>33</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4274,7 +4281,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="180" x14ac:dyDescent="0.45">
@@ -4282,10 +4289,10 @@
         <v>34</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4296,7 +4303,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4304,10 +4311,10 @@
         <v>34</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4315,10 +4322,10 @@
         <v>34</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4326,10 +4333,10 @@
         <v>34</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4337,10 +4344,10 @@
         <v>34</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -4348,10 +4355,10 @@
         <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -4359,10 +4366,10 @@
         <v>34</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4370,76 +4377,76 @@
         <v>34</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="72" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="B63" s="1" t="s">
-        <v>411</v>
+        <v>145</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>221</v>
+        <v>409</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>222</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="90" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>153</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4447,117 +4454,117 @@
         <v>61</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>96</v>
+        <v>499</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
@@ -4565,54 +4572,54 @@
         <v>61</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4620,54 +4627,54 @@
         <v>61</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>220</v>
+        <v>423</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="90" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -4675,32 +4682,32 @@
         <v>61</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+        <v>288</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>451</v>
+        <v>311</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
@@ -4708,32 +4715,43 @@
         <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>227</v>
+        <v>450</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>517</v>
+        <v>421</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4757,13 +4775,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4782,10 +4800,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4793,55 +4811,55 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
@@ -4852,18 +4870,18 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4885,7 +4903,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4901,37 +4919,37 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" t="s">
         <v>306</v>
-      </c>
-      <c r="C15" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4959,22 +4977,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -4985,107 +5003,107 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="58.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>63</v>
@@ -5099,13 +5117,13 @@
     </row>
     <row r="8" spans="1:7" ht="91.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>63</v>
@@ -5114,98 +5132,98 @@
         <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="108" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5216,7 +5234,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -5227,7 +5245,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="180" x14ac:dyDescent="0.45">
@@ -5238,7 +5256,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -5246,10 +5264,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5260,7 +5278,7 @@
         <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5271,7 +5289,7 @@
         <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="162" x14ac:dyDescent="0.45">
@@ -5282,7 +5300,7 @@
         <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5293,7 +5311,7 @@
         <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="126" x14ac:dyDescent="0.45">
@@ -5304,7 +5322,7 @@
         <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -5323,10 +5341,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -5334,10 +5352,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -5345,10 +5363,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5356,10 +5374,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5367,10 +5385,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5378,10 +5396,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -5389,10 +5407,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5400,10 +5418,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -5416,8 +5434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB35074-C9E0-44FC-9F05-2522E661F8BA}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5431,24 +5449,24 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>78</v>
@@ -5462,13 +5480,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
@@ -5482,265 +5500,265 @@
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/s.xlsx
+++ b/漢字（かんじ）/s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B805F0-3978-44AF-B106-59DFD78C0012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB4D7F4-3AF3-459D-B65B-78CD121618A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="さ" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="525">
   <si>
     <t>さ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,11 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信じる｜しんじる
-信用｜しんよう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -684,10 +679,6 @@
   </si>
   <si>
     <t>主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開催｜かいさい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1126,11 +1117,6 @@
 即戦力｜そくせんりょく
 戦争｜せんそう
 戦略｜せんりゃく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材｜そざい
-素描｜そびょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1942,13 +1928,6 @@
       </rPr>
       <t>個別支援｜こべつしえん</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>処方｜しょほう
-処方薬｜しょほうやく
-処方箋｜しょほうせん
-処分｜しょぶん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2652,6 +2631,45 @@
   <si>
     <t>植物｜しょくぶつ
 植民｜しょくみん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>処方｜しょほう
+処方薬｜しょほうやく
+処方箋｜しょほうせん
+処分｜しょぶん
+対処｜たいしょ
+対処方法｜たいしょほうほう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信じる｜しんじる
+信用｜しんよう
+信念｜しんねん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材｜そざい
+素描｜そびょう
+要素｜ようそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁縫｜さいほう
+裁判｜さいばん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おびえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開催｜かいさい
+催涙｜さいるい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3020,10 +3038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3037,22 +3055,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -3060,19 +3078,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
@@ -3080,19 +3098,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>445</v>
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3100,19 +3118,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -3123,153 +3141,153 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>324</v>
+        <v>430</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>520</v>
+        <v>441</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>434</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>158</v>
+        <v>516</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="108" x14ac:dyDescent="0.45">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>450</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>328</v>
+        <v>160</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>161</v>
+        <v>521</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
@@ -3277,39 +3295,30 @@
         <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>273</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>274</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>486</v>
+        <v>158</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3317,10 +3326,10 @@
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>488</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3328,10 +3337,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>150</v>
+        <v>485</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -3339,10 +3348,10 @@
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>229</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3350,43 +3359,43 @@
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>283</v>
+        <v>148</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="56.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>279</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>117</v>
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -3394,32 +3403,54 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>485</v>
+        <v>193</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -3430,10 +3461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FBE25A-5774-436D-8C1C-E9DE4531361B}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3445,295 +3476,295 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G13" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="108" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="106.8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:9" ht="106.8" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>31</v>
@@ -3744,225 +3775,228 @@
       <c r="G15" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I15" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="108" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="184.8" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3973,13 +4007,13 @@
         <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -3987,19 +4021,19 @@
         <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4010,13 +4044,13 @@
         <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -4024,16 +4058,16 @@
         <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -4047,13 +4081,13 @@
         <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -4061,7 +4095,7 @@
         <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>519</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -4069,10 +4103,10 @@
         <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4080,10 +4114,10 @@
         <v>48</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -4091,10 +4125,10 @@
         <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="234" x14ac:dyDescent="0.45">
@@ -4102,10 +4136,10 @@
         <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4113,10 +4147,10 @@
         <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -4124,10 +4158,10 @@
         <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -4135,10 +4169,10 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4146,10 +4180,10 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -4157,10 +4191,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4168,10 +4202,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4179,10 +4213,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -4201,10 +4235,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -4212,10 +4246,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -4223,10 +4257,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -4234,10 +4268,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -4245,10 +4279,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -4256,10 +4290,10 @@
         <v>34</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4270,7 +4304,7 @@
         <v>33</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4281,7 +4315,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="180" x14ac:dyDescent="0.45">
@@ -4289,10 +4323,10 @@
         <v>34</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -4303,7 +4337,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4311,10 +4345,10 @@
         <v>34</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4322,10 +4356,10 @@
         <v>34</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4333,10 +4367,10 @@
         <v>34</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -4344,10 +4378,10 @@
         <v>34</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -4355,10 +4389,10 @@
         <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -4366,10 +4400,10 @@
         <v>34</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4377,10 +4411,10 @@
         <v>34</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4391,367 +4425,367 @@
         <v>36</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="108" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="72" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="B64" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>415</v>
+        <v>518</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -4775,13 +4809,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4800,10 +4834,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4811,55 +4845,55 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
@@ -4870,18 +4904,18 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4903,7 +4937,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4919,37 +4953,37 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4977,22 +5011,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -5003,227 +5037,227 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="58.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="91.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="108" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -5234,7 +5268,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -5245,7 +5279,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="180" x14ac:dyDescent="0.45">
@@ -5256,7 +5290,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -5264,10 +5298,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5275,10 +5309,10 @@
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5286,10 +5320,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="162" x14ac:dyDescent="0.45">
@@ -5297,10 +5331,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5308,10 +5342,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="126" x14ac:dyDescent="0.45">
@@ -5319,10 +5353,10 @@
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -5330,10 +5364,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5341,10 +5375,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -5352,10 +5386,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -5363,10 +5397,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5374,10 +5408,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5385,10 +5419,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -5396,10 +5430,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -5407,10 +5441,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5418,10 +5452,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -5434,8 +5468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB35074-C9E0-44FC-9F05-2522E661F8BA}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5449,316 +5483,316 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>261</v>
+        <v>520</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="144" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/s.xlsx
+++ b/漢字（かんじ）/s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB4D7F4-3AF3-459D-B65B-78CD121618A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B390F0C-16E2-404E-B5BF-7724B8367A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2048,10 +2048,6 @@
   </si>
   <si>
     <t>差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差額｜さがく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2670,6 +2666,12 @@
   <si>
     <t>開催｜かいさい
 催涙｜さいるい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差額｜さがく
+偏差｜へんさ
+偏差値｜へんさち</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3040,8 +3042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3101,7 +3103,7 @@
         <v>432</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>433</v>
+        <v>524</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -3141,7 +3143,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -3161,7 +3163,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
@@ -3181,7 +3183,7 @@
         <v>203</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -3198,7 +3200,7 @@
         <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -3207,7 +3209,7 @@
         <v>96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.45">
@@ -3218,7 +3220,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -3244,10 +3246,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -3275,10 +3277,10 @@
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -3307,7 +3309,7 @@
         <v>132</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -3337,10 +3339,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -3351,7 +3353,7 @@
         <v>147</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -3436,10 +3438,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -3447,10 +3449,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -3504,7 +3506,7 @@
         <v>379</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>71</v>
@@ -3533,7 +3535,7 @@
         <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.45">
@@ -3553,7 +3555,7 @@
         <v>187</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.45">
@@ -3644,7 +3646,7 @@
         <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>117</v>
@@ -3653,7 +3655,7 @@
         <v>118</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.45">
@@ -3744,7 +3746,7 @@
         <v>195</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>240</v>
@@ -3776,7 +3778,7 @@
         <v>32</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -3796,7 +3798,7 @@
         <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -3836,7 +3838,7 @@
         <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -3893,10 +3895,10 @@
         <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3936,7 +3938,7 @@
         <v>260</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -3964,10 +3966,10 @@
         <v>90</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>275</v>
@@ -3984,10 +3986,10 @@
         <v>90</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>313</v>
@@ -4024,7 +4026,7 @@
         <v>153</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>352</v>
@@ -4095,7 +4097,7 @@
         <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -4139,7 +4141,7 @@
         <v>174</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4150,7 +4152,7 @@
         <v>189</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -4216,7 +4218,7 @@
         <v>219</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -4238,7 +4240,7 @@
         <v>156</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -4246,10 +4248,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -4315,7 +4317,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="180" x14ac:dyDescent="0.45">
@@ -4348,7 +4350,7 @@
         <v>89</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4411,10 +4413,10 @@
         <v>34</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4425,7 +4427,7 @@
         <v>36</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4447,7 +4449,7 @@
         <v>406</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -4521,10 +4523,10 @@
         <v>60</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -4546,7 +4548,7 @@
         <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -4568,7 +4570,7 @@
         <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
@@ -4598,7 +4600,7 @@
         <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
@@ -4686,7 +4688,7 @@
         <v>216</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -4708,7 +4710,7 @@
         <v>247</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -4749,10 +4751,10 @@
         <v>60</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
@@ -4782,10 +4784,10 @@
         <v>60</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -4837,7 +4839,7 @@
         <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -4980,7 +4982,7 @@
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>287</v>
@@ -5046,7 +5048,7 @@
         <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5054,10 +5056,10 @@
         <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>112</v>
@@ -5097,7 +5099,7 @@
         <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>112</v>
@@ -5137,7 +5139,7 @@
         <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>62</v>
@@ -5166,7 +5168,7 @@
         <v>61</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.45">
@@ -5186,7 +5188,7 @@
         <v>121</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5206,7 +5208,7 @@
         <v>191</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -5234,10 +5236,10 @@
         <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>62</v>
@@ -5246,7 +5248,7 @@
         <v>414</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -5268,7 +5270,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -5290,7 +5292,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -5298,10 +5300,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5356,7 +5358,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -5444,7 +5446,7 @@
         <v>425</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -5452,10 +5454,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -5517,10 +5519,10 @@
         <v>162</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>79</v>
@@ -5560,7 +5562,7 @@
         <v>192</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>122</v>
@@ -5629,7 +5631,7 @@
         <v>128</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -5689,7 +5691,7 @@
         <v>328</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -5717,16 +5719,16 @@
         <v>357</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -5756,10 +5758,10 @@
         <v>168</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
